--- a/main_example.xlsx
+++ b/main_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Desktop\vrk_ui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Documents\GitHub\vkr_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1366843D-70E6-469B-BBAD-E626C69C6C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4412C195-281B-457F-B21C-C9F747674184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>БазаПрактики</t>
   </si>
@@ -172,13 +172,55 @@
   </si>
   <si>
     <t>год</t>
+  </si>
+  <si>
+    <t>ФИОвВП</t>
+  </si>
+  <si>
+    <t>ФИОРукПрофОргВП</t>
+  </si>
+  <si>
+    <t>УставПрофОрг</t>
+  </si>
+  <si>
+    <t>ДолжностныеИнструкции</t>
+  </si>
+  <si>
+    <t>ФактАдрессПрофорг</t>
+  </si>
+  <si>
+    <t>ТелефонСтудента</t>
+  </si>
+  <si>
+    <t>ЭлПочтаСтудента</t>
+  </si>
+  <si>
+    <t>ТипПрактикиРП</t>
+  </si>
+  <si>
+    <t>ДатаЗаМесяцДоНачПракт</t>
+  </si>
+  <si>
+    <t>ФормаОбученияИП</t>
+  </si>
+  <si>
+    <t>ОГРН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Направленность </t>
+  </si>
+  <si>
+    <t>ЗавКафДП</t>
+  </si>
+  <si>
+    <t>темаВКР</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +242,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -243,6 +292,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:BN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY14" sqref="AY14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,9 +602,15 @@
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" customWidth="1"/>
     <col min="16" max="16" width="46.5703125" customWidth="1"/>
     <col min="17" max="17" width="23.140625" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" customWidth="1"/>
+    <col min="28" max="28" width="18" customWidth="1"/>
+    <col min="29" max="29" width="18.7109375" customWidth="1"/>
     <col min="32" max="32" width="12.28515625" customWidth="1"/>
     <col min="33" max="33" width="14.85546875" customWidth="1"/>
     <col min="37" max="37" width="11.85546875" customWidth="1"/>
@@ -556,9 +620,24 @@
     <col min="42" max="42" width="18.5703125" customWidth="1"/>
     <col min="46" max="46" width="11.85546875" customWidth="1"/>
     <col min="47" max="47" width="20.7109375" customWidth="1"/>
+    <col min="52" max="52" width="15" customWidth="1"/>
+    <col min="53" max="53" width="21.7109375" customWidth="1"/>
+    <col min="54" max="54" width="27" customWidth="1"/>
+    <col min="55" max="55" width="26.42578125" customWidth="1"/>
+    <col min="56" max="56" width="27.28515625" customWidth="1"/>
+    <col min="57" max="57" width="18.42578125" customWidth="1"/>
+    <col min="58" max="58" width="18.28515625" customWidth="1"/>
+    <col min="59" max="59" width="19.28515625" customWidth="1"/>
+    <col min="60" max="60" width="24.7109375" customWidth="1"/>
+    <col min="61" max="61" width="18.42578125" customWidth="1"/>
+    <col min="62" max="62" width="30.140625" customWidth="1"/>
+    <col min="63" max="63" width="27.5703125" customWidth="1"/>
+    <col min="64" max="64" width="26.85546875" customWidth="1"/>
+    <col min="65" max="65" width="18.5703125" customWidth="1"/>
+    <col min="66" max="66" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,8 +791,53 @@
       <c r="AY1" t="s">
         <v>48</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" ht="17.25" x14ac:dyDescent="0.3">
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4"/>
@@ -746,6 +870,18 @@
       <c r="AV2" s="3"/>
       <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="9"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
